--- a/core/data.xlsx
+++ b/core/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="学生信息表" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="学生信息表" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -394,19 +394,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tyler Fernandez</t>
+          <t>Julia Gonzalez</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>554.96</v>
+        <v>868.8099999999999</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>25729</v>
+        <v>38698</v>
       </c>
       <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -416,19 +419,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brandi Barnes</t>
+          <t>Robert Henry</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D3" t="n">
-        <v>125.69</v>
+        <v>163.56</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>38744</v>
+        <v>37181</v>
       </c>
       <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -438,20 +444,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Robert Robinson MD</t>
+          <t>Sarah Harris</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>913</v>
+        <v>433.99</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>28971</v>
+        <v>29480</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -460,20 +469,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eugene Rivera</t>
+          <t>Dean Bryant</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>494.48</v>
+        <v>450.91</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>42269</v>
+        <v>39809</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -482,19 +494,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Robert Hale</t>
+          <t>Ashley Guerrero</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>167.53</v>
+        <v>823.54</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>38091</v>
+        <v>28643</v>
       </c>
       <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -504,19 +519,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bridget Hernandez</t>
+          <t>Vincent Briggs</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>921.4299999999999</v>
+        <v>721.23</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>30202</v>
+        <v>33826</v>
       </c>
       <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -526,19 +544,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Deborah Fletcher</t>
+          <t>Brittney Anthony</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D8" t="n">
-        <v>838.39</v>
+        <v>799.03</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>34814</v>
+        <v>33939</v>
       </c>
       <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -548,20 +569,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Miss Pamela Rogers</t>
+          <t>Jon Ward DDS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>202.22</v>
+        <v>721.88</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>36753</v>
+        <v>36307</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -570,19 +594,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Julia Morris</t>
+          <t>Cynthia Clayton</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D10" t="n">
-        <v>576.66</v>
+        <v>562.53</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>29862</v>
+        <v>38271</v>
       </c>
       <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -592,20 +619,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Michael Dunn</t>
+          <t>Ashley Rose</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D11" t="n">
-        <v>334.95</v>
+        <v>145.85</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>30460</v>
+        <v>27579</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -614,19 +644,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Melissa Fernandez</t>
+          <t>Rachel Caldwell</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>29</v>
       </c>
       <c r="D12" t="n">
-        <v>969.85</v>
+        <v>689.92</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>37425</v>
+        <v>43050</v>
       </c>
       <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -636,20 +669,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Karen Davis</t>
+          <t>Jennifer Hale</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D13" t="n">
-        <v>850.11</v>
+        <v>989.91</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>27989</v>
+        <v>27840</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -658,20 +694,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sandra Armstrong</t>
+          <t>David Kirby</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>726.3</v>
+        <v>402.8</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>26790</v>
+        <v>33599</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -680,20 +719,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Shirley Johnson</t>
+          <t>Jason Grimes</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>121.24</v>
+        <v>727.71</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>29682</v>
+        <v>27597</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -702,20 +744,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Anna Logan</t>
+          <t>Amy Sullivan</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D16" t="n">
-        <v>900.47</v>
+        <v>339.41</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>29315</v>
+        <v>36108</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -724,20 +769,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dr. Sara Wallace</t>
+          <t>Jaime Lopez</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
-        <v>274.99</v>
+        <v>456.02</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>38067</v>
+        <v>35740</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -746,20 +794,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Darius Robinson</t>
+          <t>Megan Hicks</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D18" t="n">
-        <v>363.58</v>
+        <v>815.45</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>29761</v>
+        <v>31583</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -768,19 +819,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Karen Taylor</t>
+          <t>Mark Torres</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D19" t="n">
-        <v>493.63</v>
+        <v>116.03</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>31373</v>
+        <v>26104</v>
       </c>
       <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
         <v>1</v>
       </c>
     </row>
@@ -790,20 +844,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Donald Macdonald</t>
+          <t>Virginia Jones</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D20" t="n">
-        <v>581.85</v>
+        <v>429.1</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>26854</v>
+        <v>41255</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -812,20 +869,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Christopher Stuart III</t>
+          <t>Timothy Turner</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
-        <v>408.78</v>
+        <v>183.34</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>34006</v>
+        <v>40641</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -834,20 +894,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>James Moore</t>
+          <t>Riley Simmons</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D22" t="n">
-        <v>243.72</v>
+        <v>952.12</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>43689</v>
+        <v>28231</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -856,20 +919,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>David May</t>
+          <t>Crystal Arnold</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>278.33</v>
+        <v>149.18</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>43479</v>
+        <v>33308</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -878,19 +944,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Francisco Aguirre</t>
+          <t>Kimberly Orozco</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>972.61</v>
+        <v>151.16</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>42715</v>
+        <v>37808</v>
       </c>
       <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
         <v>1</v>
       </c>
     </row>
@@ -900,20 +969,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Charlotte Gonzalez</t>
+          <t>Shawn Monroe</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>397.58</v>
+        <v>576.96</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>29468</v>
+        <v>42335</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -922,20 +994,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Alexandra Sharp</t>
+          <t>Shawn Bradley</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D26" t="n">
-        <v>568.89</v>
+        <v>563.96</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>28201</v>
+        <v>27677</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -944,20 +1019,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Kayla Welch</t>
+          <t>Gwendolyn Griffin</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>396.53</v>
+        <v>385.3</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>31479</v>
+        <v>35737</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -966,20 +1044,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Brian Navarro</t>
+          <t>Nicole Hernandez</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D28" t="n">
-        <v>806.55</v>
+        <v>394.56</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>33843</v>
+        <v>35228</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -988,19 +1069,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cameron Sullivan</t>
+          <t>Jill Sellers</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D29" t="n">
-        <v>866.86</v>
+        <v>316.89</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>28327</v>
+        <v>38132</v>
       </c>
       <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1010,20 +1094,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Elizabeth York</t>
+          <t>Mrs. Alison Bass</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D30" t="n">
-        <v>680.3099999999999</v>
+        <v>429.19</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>31238</v>
+        <v>43668</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1032,20 +1119,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Lisa Foley</t>
+          <t>Elizabeth Hartman</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
-        <v>495.14</v>
+        <v>606.63</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>27743</v>
+        <v>28913</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1054,19 +1144,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Kelly Williams</t>
+          <t>Annette Thompson</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>107.27</v>
+        <v>412.39</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>28128</v>
+        <v>43194</v>
       </c>
       <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1076,19 +1169,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Whitney Franklin</t>
+          <t>Jeremy Proctor</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>575.8099999999999</v>
+        <v>521.34</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>36839</v>
+        <v>39850</v>
       </c>
       <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1098,19 +1194,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Alexis Waters</t>
+          <t>Mary Munoz</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D34" t="n">
-        <v>676.66</v>
+        <v>745.35</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>28113</v>
+        <v>26973</v>
       </c>
       <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1120,20 +1219,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Vanessa Johnson</t>
+          <t>Kelsey Pineda</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D35" t="n">
-        <v>347.77</v>
+        <v>448.03</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>35314</v>
+        <v>26181</v>
       </c>
       <c r="F35" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1142,19 +1244,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Kerri Lopez</t>
+          <t>Juan Thomas</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D36" t="n">
-        <v>220.31</v>
+        <v>845.98</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>28211</v>
+        <v>32248</v>
       </c>
       <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1164,20 +1269,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Terri Harding</t>
+          <t>Patricia Keller</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D37" t="n">
-        <v>218.9</v>
+        <v>619.1</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>41568</v>
+        <v>37780</v>
       </c>
       <c r="F37" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1186,19 +1294,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Robert Hernandez</t>
+          <t>Casey Simmons</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D38" t="n">
-        <v>531.61</v>
+        <v>935.1799999999999</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>36286</v>
+        <v>35492</v>
       </c>
       <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1208,20 +1319,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Robin Hopkins DDS</t>
+          <t>Sharon Watkins</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>902.28</v>
+        <v>727.17</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>40883</v>
+        <v>34290</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1230,20 +1344,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Katelyn Delacruz</t>
+          <t>Matthew Armstrong</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D40" t="n">
-        <v>521.8</v>
+        <v>470.14</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>27984</v>
+        <v>32687</v>
       </c>
       <c r="F40" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1252,19 +1369,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Melvin Welch</t>
+          <t>Todd Brown</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D41" t="n">
-        <v>294.96</v>
+        <v>700.14</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>36874</v>
+        <v>37570</v>
       </c>
       <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1274,20 +1394,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Charles Robinson</t>
+          <t>Andrew Alvarez</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D42" t="n">
-        <v>288.13</v>
+        <v>460.08</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>32521</v>
+        <v>39586</v>
       </c>
       <c r="F42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1296,20 +1419,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Carol Evans</t>
+          <t>Cheryl Lucas</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D43" t="n">
-        <v>650.34</v>
+        <v>291.52</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>38104</v>
+        <v>37527</v>
       </c>
       <c r="F43" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1318,19 +1444,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Steve Young</t>
+          <t>Rhonda Vincent</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>418.1</v>
+        <v>955.05</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>35321</v>
+        <v>28436</v>
       </c>
       <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1340,19 +1469,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Robert Peters</t>
+          <t>Carrie Hernandez</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D45" t="n">
-        <v>274.32</v>
+        <v>210.56</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>30505</v>
+        <v>37887</v>
       </c>
       <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1362,19 +1494,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Charlotte Cox</t>
+          <t>Mary Graham</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D46" t="n">
-        <v>295.07</v>
+        <v>184.2</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>38586</v>
+        <v>33916</v>
       </c>
       <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1384,20 +1519,23 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Kristen Brown</t>
+          <t>Daisy Sosa</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D47" t="n">
-        <v>311.43</v>
+        <v>114.78</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>27446</v>
+        <v>32779</v>
       </c>
       <c r="F47" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1406,20 +1544,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tara Oneill</t>
+          <t>Melissa Miller</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D48" t="n">
-        <v>761.66</v>
+        <v>451.05</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>28802</v>
+        <v>39948</v>
       </c>
       <c r="F48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1428,19 +1569,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Jose Carter</t>
+          <t>Sharon Shepherd</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D49" t="n">
-        <v>871.79</v>
+        <v>217.09</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>26764</v>
+        <v>36269</v>
       </c>
       <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1450,20 +1594,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Vanessa Cobb</t>
+          <t>Emily Simpson</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
-        <v>298.22</v>
+        <v>493.9</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>37675</v>
+        <v>35841</v>
       </c>
       <c r="F50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1472,20 +1619,23 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Beth Benson</t>
+          <t>Carlos Murphy</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>50</v>
       </c>
       <c r="D51" t="n">
-        <v>428.42</v>
+        <v>822.61</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>33131</v>
+        <v>39065</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1494,19 +1644,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Christine Ramirez</t>
+          <t>Marissa Small</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D52" t="n">
-        <v>129.57</v>
+        <v>305.54</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>34677</v>
+        <v>34288</v>
       </c>
       <c r="F52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1516,19 +1669,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Brendan Davis</t>
+          <t>Derek House</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D53" t="n">
-        <v>258.46</v>
+        <v>842.8</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>30529</v>
+        <v>42686</v>
       </c>
       <c r="F53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1538,20 +1694,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Mark Powell</t>
+          <t>Kimberly Jimenez</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D54" t="n">
-        <v>355.38</v>
+        <v>434.57</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>37202</v>
+        <v>39576</v>
       </c>
       <c r="F54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
@@ -1563,17 +1719,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tammy Hartman</t>
+          <t>Christina Bailey</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D55" t="n">
-        <v>102.05</v>
+        <v>307.12</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>42682</v>
+        <v>29407</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
@@ -1588,20 +1744,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ronald Blankenship</t>
+          <t>Lisa Burns</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D56" t="n">
-        <v>633.72</v>
+        <v>724.23</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>40634</v>
+        <v>38907</v>
       </c>
       <c r="F56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -1613,20 +1769,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Holly Cooper</t>
+          <t>Angela Brady</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D57" t="n">
-        <v>538.91</v>
+        <v>471.73</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>39849</v>
+        <v>39722</v>
       </c>
       <c r="F57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -1638,19 +1794,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Robert Lowe</t>
+          <t>Stephen Gomez</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D58" t="n">
-        <v>300.81</v>
+        <v>636.47</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>32799</v>
+        <v>43636</v>
       </c>
       <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1660,17 +1819,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Jennifer Beasley</t>
+          <t>Brittany Thomas</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D59" t="n">
-        <v>131.41</v>
+        <v>252.78</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>43273</v>
+        <v>43490</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
@@ -1685,17 +1844,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Miguel Garcia</t>
+          <t>Lauren Rush</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D60" t="n">
-        <v>644.16</v>
+        <v>241.93</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>37987</v>
+        <v>32960</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -1710,19 +1869,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Holly Williams</t>
+          <t>Michelle Irwin</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D61" t="n">
-        <v>885.58</v>
+        <v>435.97</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>27771</v>
+        <v>39364</v>
       </c>
       <c r="F61" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1732,19 +1894,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Rachel Calderon</t>
+          <t>Lisa Fritz</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D62" t="n">
-        <v>420.72</v>
+        <v>524</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>30943</v>
+        <v>32045</v>
       </c>
       <c r="F62" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1754,19 +1919,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Vincent Cook</t>
+          <t>Robert Carr</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D63" t="n">
-        <v>965.22</v>
+        <v>202.76</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>26378</v>
+        <v>31960</v>
       </c>
       <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1776,19 +1944,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Lisa Meyers</t>
+          <t>Randy Riley</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D64" t="n">
-        <v>277.75</v>
+        <v>850.0700000000001</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>35617</v>
+        <v>30733</v>
       </c>
       <c r="F64" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1798,17 +1969,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Stacy Burns</t>
+          <t>Mr. Devin Gould</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D65" t="n">
-        <v>833.12</v>
+        <v>849.64</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>39223</v>
+        <v>27812</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -1823,17 +1994,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>David Ortiz</t>
+          <t>Kent White</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D66" t="n">
-        <v>715.62</v>
+        <v>192.84</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>38118</v>
+        <v>37935</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -1848,17 +2019,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Kristin Dunn</t>
+          <t>Michael Simmons</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D67" t="n">
-        <v>761.85</v>
+        <v>371.7</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>42570</v>
+        <v>38213</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
@@ -1873,20 +2044,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Lauren Stewart</t>
+          <t>Clinton Smith</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D68" t="n">
-        <v>770.86</v>
+        <v>586.01</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>42284</v>
+        <v>29410</v>
       </c>
       <c r="F68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
@@ -1898,19 +2069,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Charles Kirby V</t>
+          <t>Joseph Brown</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D69" t="n">
-        <v>460.44</v>
+        <v>439.16</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>34588</v>
+        <v>26526</v>
       </c>
       <c r="F69" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1920,20 +2094,23 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Amber Thompson</t>
+          <t>William Adams</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D70" t="n">
-        <v>414.14</v>
+        <v>397.76</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>31618</v>
+        <v>41246</v>
       </c>
       <c r="F70" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1942,19 +2119,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Margaret Cox</t>
+          <t>Chad Lee</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D71" t="n">
-        <v>875.61</v>
+        <v>370.55</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>34714</v>
+        <v>42238</v>
       </c>
       <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1964,19 +2144,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Patricia Martinez</t>
+          <t>Lauren Phillips</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D72" t="n">
-        <v>496.14</v>
+        <v>721.16</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>33715</v>
+        <v>32515</v>
       </c>
       <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1986,20 +2169,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Deanna Frye</t>
+          <t>Sherry Holland</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D73" t="n">
-        <v>673.37</v>
+        <v>980.96</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>41477</v>
+        <v>31536</v>
       </c>
       <c r="F73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
@@ -2011,20 +2194,23 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Miguel Jones</t>
+          <t>Robert Schneider</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D74" t="n">
-        <v>265.1</v>
+        <v>688.8099999999999</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>32585</v>
+        <v>43238</v>
       </c>
       <c r="F74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2033,17 +2219,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Veronica Carr</t>
+          <t>Joe Summers</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D75" t="n">
-        <v>963.9400000000001</v>
+        <v>317.59</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>36534</v>
+        <v>30911</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -2058,17 +2244,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Julia Robinson</t>
+          <t>Kimberly Mann</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D76" t="n">
-        <v>452.24</v>
+        <v>550.78</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>43729</v>
+        <v>28611</v>
       </c>
       <c r="F76" t="b">
         <v>1</v>
@@ -2083,19 +2269,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Kyle Stephens</t>
+          <t>Sarah Moody</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D77" t="n">
-        <v>858.9400000000001</v>
+        <v>854.8200000000001</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>35660</v>
+        <v>34533</v>
       </c>
       <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2105,17 +2294,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Stacey Stafford</t>
+          <t>Eric Mccarthy</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D78" t="n">
-        <v>186.83</v>
+        <v>520.75</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>41488</v>
+        <v>41523</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -2130,19 +2319,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Kimberly Oneal</t>
+          <t>Paul Quinn</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D79" t="n">
-        <v>236.52</v>
+        <v>118.68</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>31265</v>
+        <v>39849</v>
       </c>
       <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2152,19 +2344,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Jonathan Ward</t>
+          <t>James Jensen</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D80" t="n">
-        <v>290.75</v>
+        <v>539.01</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>33578</v>
+        <v>33442</v>
       </c>
       <c r="F80" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2174,17 +2369,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Patty Price</t>
+          <t>Lisa Johnson</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D81" t="n">
-        <v>937.4</v>
+        <v>363.04</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>42998</v>
+        <v>37579</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -2199,19 +2394,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Billy Booth</t>
+          <t>Chelsea Brown</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D82" t="n">
-        <v>401.05</v>
+        <v>481.73</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>32038</v>
+        <v>36214</v>
       </c>
       <c r="F82" t="b">
+        <v>1</v>
+      </c>
+      <c r="G82" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2221,20 +2419,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Kathryn Cruz</t>
+          <t>Amanda Garcia</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>835.5</v>
+        <v>391.35</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>39105</v>
+        <v>35697</v>
       </c>
       <c r="F83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
@@ -2246,19 +2444,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Jacob Martinez</t>
+          <t>Angela Mitchell</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D84" t="n">
-        <v>587.2</v>
+        <v>960.71</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>27225</v>
+        <v>31043</v>
       </c>
       <c r="F84" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2268,19 +2469,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Virginia Christian</t>
+          <t>Kristopher Griffin</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D85" t="n">
-        <v>825.0599999999999</v>
+        <v>678.79</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>29687</v>
+        <v>34623</v>
       </c>
       <c r="F85" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2290,19 +2494,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Catherine West</t>
+          <t>Desiree Cameron</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D86" t="n">
-        <v>966.71</v>
+        <v>501.23</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>31733</v>
+        <v>36466</v>
       </c>
       <c r="F86" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2312,20 +2519,23 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Misty Nixon MD</t>
+          <t>Nicole Wells</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D87" t="n">
-        <v>412.52</v>
+        <v>815.8200000000001</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>36505</v>
+        <v>37905</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2334,20 +2544,23 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Jeremy Scott</t>
+          <t>Hannah Ross</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D88" t="n">
-        <v>142.6</v>
+        <v>947.39</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>30069</v>
+        <v>30667</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2356,19 +2569,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Robin Russell</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D89" t="n">
-        <v>304.99</v>
+        <v>747.13</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>34945</v>
+        <v>30054</v>
       </c>
       <c r="F89" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2378,19 +2594,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Robert Henry</t>
+          <t>Henry Parker</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>665.51</v>
+        <v>697.64</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>30002</v>
+        <v>41804</v>
       </c>
       <c r="F90" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2400,20 +2619,23 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Kevin Williams</t>
+          <t>Carla Collier</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D91" t="n">
-        <v>795.9</v>
+        <v>346.86</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>30168</v>
+        <v>42143</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
+      </c>
+      <c r="G91" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -2422,19 +2644,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Kayla Adams</t>
+          <t>Heidi Mcbride</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D92" t="n">
-        <v>829.59</v>
+        <v>794.03</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>32480</v>
+        <v>33403</v>
       </c>
       <c r="F92" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2444,20 +2669,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Denise Mays</t>
+          <t>John Spears</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D93" t="n">
-        <v>319.26</v>
+        <v>282.89</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>38979</v>
+        <v>34300</v>
       </c>
       <c r="F93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -2469,17 +2694,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Vincent Mccoy</t>
+          <t>James Bowen</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D94" t="n">
-        <v>466.83</v>
+        <v>963.85</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>38410</v>
+        <v>32087</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
@@ -2494,20 +2719,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Aaron Marshall</t>
+          <t>Michael Thompson</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D95" t="n">
-        <v>956.42</v>
+        <v>783.78</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>41222</v>
+        <v>29724</v>
       </c>
       <c r="F95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
@@ -2519,20 +2744,23 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Donna Smith</t>
+          <t>Victoria Ramirez</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D96" t="n">
-        <v>908.15</v>
+        <v>207.49</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>28897</v>
+        <v>38323</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2541,20 +2769,23 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Michael Mcconnell</t>
+          <t>David Sullivan</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D97" t="n">
-        <v>235.24</v>
+        <v>535.3200000000001</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>27064</v>
+        <v>43390</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2563,20 +2794,23 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Billy Petty</t>
+          <t>Caroline Allen</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D98" t="n">
-        <v>962.0700000000001</v>
+        <v>680</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>35267</v>
+        <v>43388</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2585,20 +2819,23 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Joyce Castillo</t>
+          <t>Chelsea Summers</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>780.26</v>
+        <v>492.23</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>30773</v>
+        <v>36794</v>
       </c>
       <c r="F99" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2607,19 +2844,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Janet Chase</t>
+          <t>Gary Davis</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>951.4299999999999</v>
+        <v>175.49</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>31054</v>
+        <v>32670</v>
       </c>
       <c r="F100" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2629,20 +2869,20 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Alex Fischer</t>
+          <t>Rachel Joyce</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D101" t="n">
-        <v>716.7</v>
+        <v>557.1900000000001</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>42820</v>
+        <v>37752</v>
       </c>
       <c r="F101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>

--- a/core/data.xlsx
+++ b/core/data.xlsx
@@ -394,23 +394,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Julia Gonzalez</t>
+          <t>Justin Cook</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>868.8099999999999</v>
+        <v>951.03</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>38698</v>
+        <v>29427</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -419,17 +416,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Robert Henry</t>
+          <t>Harry Evans</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>163.56</v>
+        <v>560.15</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>37181</v>
+        <v>37963</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -444,23 +441,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sarah Harris</t>
+          <t>Joshua Davis</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>433.99</v>
+        <v>532.61</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>29480</v>
+        <v>40783</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -469,23 +463,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dean Bryant</t>
+          <t>Kim Leonard</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>450.91</v>
+        <v>548.3200000000001</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>39809</v>
+        <v>41421</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -494,20 +485,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ashley Guerrero</t>
+          <t>Susan Mejia</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>823.54</v>
+        <v>699.54</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>28643</v>
+        <v>36112</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -519,17 +510,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vincent Briggs</t>
+          <t>Justin Thompson</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>721.23</v>
+        <v>623.0700000000001</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>33826</v>
+        <v>39186</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -544,23 +535,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Brittney Anthony</t>
+          <t>Zachary Gilmore</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>799.03</v>
+        <v>292.93</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>33939</v>
+        <v>39634</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -569,23 +557,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jon Ward DDS</t>
+          <t>Richard Morris</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>721.88</v>
+        <v>416.69</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>36307</v>
+        <v>38703</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -594,23 +579,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cynthia Clayton</t>
+          <t>Lori Vargas</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>562.53</v>
+        <v>764.8</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>38271</v>
+        <v>43534</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -619,17 +601,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ashley Rose</t>
+          <t>Ryan Williams</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D11" t="n">
-        <v>145.85</v>
+        <v>178.27</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>27579</v>
+        <v>33415</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -644,20 +626,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rachel Caldwell</t>
+          <t>David Pittman</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>689.92</v>
+        <v>333.56</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>43050</v>
+        <v>27323</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -669,23 +651,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jennifer Hale</t>
+          <t>Sarah Contreras</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D13" t="n">
-        <v>989.91</v>
+        <v>189.83</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>27840</v>
+        <v>27891</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -694,20 +673,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>David Kirby</t>
+          <t>Sean Murphy</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>402.8</v>
+        <v>233.27</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>33599</v>
+        <v>26036</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -719,23 +698,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jason Grimes</t>
+          <t>Alison Woodward</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
-        <v>727.71</v>
+        <v>221.3</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>27597</v>
+        <v>40878</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -744,23 +720,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Amy Sullivan</t>
+          <t>Megan Green</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>339.41</v>
+        <v>693.62</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>36108</v>
+        <v>41508</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -769,20 +742,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jaime Lopez</t>
+          <t>Jill Anderson</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
-        <v>456.02</v>
+        <v>728.65</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>35740</v>
+        <v>33413</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -794,17 +767,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Megan Hicks</t>
+          <t>Kelly Graham</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>815.45</v>
+        <v>309.46</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>31583</v>
+        <v>42169</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -819,20 +792,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mark Torres</t>
+          <t>Claudia Fisher</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>116.03</v>
+        <v>934.52</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>26104</v>
+        <v>36317</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -844,20 +817,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Virginia Jones</t>
+          <t>Tamara Warner</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D20" t="n">
-        <v>429.1</v>
+        <v>553.85</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>41255</v>
+        <v>28751</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -869,17 +842,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Timothy Turner</t>
+          <t>Kelly Brown</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>183.34</v>
+        <v>116.06</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>40641</v>
+        <v>26244</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -894,20 +867,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Riley Simmons</t>
+          <t>Rhonda Miller</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>952.12</v>
+        <v>896.52</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>28231</v>
+        <v>26902</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -919,17 +892,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Crystal Arnold</t>
+          <t>Samuel Byrd</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D23" t="n">
-        <v>149.18</v>
+        <v>502.6</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>33308</v>
+        <v>28440</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -944,20 +917,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Kimberly Orozco</t>
+          <t>Kendra Williams</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D24" t="n">
-        <v>151.16</v>
+        <v>374.53</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>37808</v>
+        <v>30721</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -969,17 +942,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Shawn Monroe</t>
+          <t>Sharon Mcdowell</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D25" t="n">
-        <v>576.96</v>
+        <v>186.15</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>42335</v>
+        <v>43533</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -994,17 +967,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Shawn Bradley</t>
+          <t>Zachary Walters</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>563.96</v>
+        <v>467.68</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>27677</v>
+        <v>40971</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -1019,20 +992,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Gwendolyn Griffin</t>
+          <t>Jonathan Baxter</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
-        <v>385.3</v>
+        <v>263.96</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>35737</v>
+        <v>40854</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -1044,17 +1017,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nicole Hernandez</t>
+          <t>Kevin Guerrero</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D28" t="n">
-        <v>394.56</v>
+        <v>759.45</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>35228</v>
+        <v>35918</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
@@ -1069,20 +1042,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Jill Sellers</t>
+          <t>Brittany Dorsey</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
-        <v>316.89</v>
+        <v>863.11</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>38132</v>
+        <v>32557</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -1094,23 +1067,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mrs. Alison Bass</t>
+          <t>Christina Sexton</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>429.19</v>
+        <v>154.75</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>43668</v>
+        <v>34392</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1119,23 +1089,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Elizabeth Hartman</t>
+          <t>Emily Lawrence</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>606.63</v>
+        <v>276.95</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>28913</v>
+        <v>33962</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1144,23 +1111,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Annette Thompson</t>
+          <t>Logan Price</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D32" t="n">
-        <v>412.39</v>
+        <v>301.31</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>43194</v>
+        <v>37836</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1169,17 +1133,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Jeremy Proctor</t>
+          <t>Ashley Russo</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>521.34</v>
+        <v>197.41</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>39850</v>
+        <v>36520</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
@@ -1194,23 +1158,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mary Munoz</t>
+          <t>Justin Martin</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D34" t="n">
-        <v>745.35</v>
+        <v>924.39</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>26973</v>
+        <v>43041</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1219,17 +1180,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Kelsey Pineda</t>
+          <t>Dr. Joshua Jones</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D35" t="n">
-        <v>448.03</v>
+        <v>686.24</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>26181</v>
+        <v>34110</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
@@ -1244,23 +1205,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Juan Thomas</t>
+          <t>Douglas Arnold</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>845.98</v>
+        <v>124.29</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>32248</v>
+        <v>38606</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1269,17 +1227,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Patricia Keller</t>
+          <t>Rachel Meyer</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D37" t="n">
-        <v>619.1</v>
+        <v>901</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>37780</v>
+        <v>27834</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
@@ -1294,23 +1252,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Casey Simmons</t>
+          <t>Jonathan Russell</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>935.1799999999999</v>
+        <v>896.11</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>35492</v>
+        <v>26101</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1319,23 +1274,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sharon Watkins</t>
+          <t>April Huerta</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>727.17</v>
+        <v>259.06</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>34290</v>
+        <v>27882</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1344,17 +1296,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Matthew Armstrong</t>
+          <t>Anne Parrish</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D40" t="n">
-        <v>470.14</v>
+        <v>297.44</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>32687</v>
+        <v>27595</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
@@ -1369,20 +1321,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Todd Brown</t>
+          <t>Richard Anderson</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D41" t="n">
-        <v>700.14</v>
+        <v>207.16</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>37570</v>
+        <v>27470</v>
       </c>
       <c r="F41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -1394,23 +1346,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Andrew Alvarez</t>
+          <t>Gary Kelly</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D42" t="n">
-        <v>460.08</v>
+        <v>454.04</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>39586</v>
+        <v>29039</v>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1419,17 +1368,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cheryl Lucas</t>
+          <t>Maria Morgan</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D43" t="n">
-        <v>291.52</v>
+        <v>912.73</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>37527</v>
+        <v>36763</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
@@ -1444,17 +1393,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Rhonda Vincent</t>
+          <t>Olivia Martin</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D44" t="n">
-        <v>955.05</v>
+        <v>204.04</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>28436</v>
+        <v>40681</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
@@ -1469,23 +1418,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Carrie Hernandez</t>
+          <t>Jimmy Simpson</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D45" t="n">
-        <v>210.56</v>
+        <v>583.46</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>37887</v>
+        <v>37522</v>
       </c>
       <c r="F45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1494,23 +1440,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mary Graham</t>
+          <t>Noah Wilkinson</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D46" t="n">
-        <v>184.2</v>
+        <v>261.83</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>33916</v>
+        <v>41533</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1519,23 +1462,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Daisy Sosa</t>
+          <t>Eric Ball</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D47" t="n">
-        <v>114.78</v>
+        <v>433.06</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>32779</v>
+        <v>35202</v>
       </c>
       <c r="F47" t="b">
-        <v>1</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1544,23 +1484,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Melissa Miller</t>
+          <t>George Warren</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D48" t="n">
-        <v>451.05</v>
+        <v>231.64</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>39948</v>
+        <v>39264</v>
       </c>
       <c r="F48" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1569,17 +1506,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sharon Shepherd</t>
+          <t>Aaron Dudley</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D49" t="n">
-        <v>217.09</v>
+        <v>336.36</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>36269</v>
+        <v>29044</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
@@ -1594,17 +1531,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Emily Simpson</t>
+          <t>Bryan Parker</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D50" t="n">
-        <v>493.9</v>
+        <v>558.1900000000001</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>35841</v>
+        <v>36570</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
@@ -1619,20 +1556,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Carlos Murphy</t>
+          <t>Jesse Cortez</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D51" t="n">
-        <v>822.61</v>
+        <v>125.87</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>39065</v>
+        <v>25632</v>
       </c>
       <c r="F51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
@@ -1644,17 +1581,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Marissa Small</t>
+          <t>Kenneth Vaughn</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D52" t="n">
-        <v>305.54</v>
+        <v>635.8200000000001</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>34288</v>
+        <v>37842</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
@@ -1669,17 +1606,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Derek House</t>
+          <t>Craig Chambers</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D53" t="n">
-        <v>842.8</v>
+        <v>438.22</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>42686</v>
+        <v>25984</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
@@ -1694,20 +1631,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Kimberly Jimenez</t>
+          <t>David Buchanan</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D54" t="n">
-        <v>434.57</v>
+        <v>269.23</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>39576</v>
+        <v>37298</v>
       </c>
       <c r="F54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
@@ -1719,23 +1656,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Christina Bailey</t>
+          <t>Victoria Love</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D55" t="n">
-        <v>307.12</v>
+        <v>932.49</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>29407</v>
+        <v>30532</v>
       </c>
       <c r="F55" t="b">
-        <v>1</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1744,23 +1678,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Lisa Burns</t>
+          <t>Nathan Munoz</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D56" t="n">
-        <v>724.23</v>
+        <v>812.97</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>38907</v>
+        <v>33014</v>
       </c>
       <c r="F56" t="b">
-        <v>1</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1769,17 +1700,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Angela Brady</t>
+          <t>Kathleen Moore</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D57" t="n">
-        <v>471.73</v>
+        <v>550.72</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>39722</v>
+        <v>28108</v>
       </c>
       <c r="F57" t="b">
         <v>1</v>
@@ -1794,20 +1725,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Stephen Gomez</t>
+          <t>Jonathan Walter</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D58" t="n">
-        <v>636.47</v>
+        <v>210.91</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>43636</v>
+        <v>37289</v>
       </c>
       <c r="F58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
@@ -1819,23 +1750,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Brittany Thomas</t>
+          <t>Melissa Cooper</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D59" t="n">
-        <v>252.78</v>
+        <v>645.21</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>43490</v>
+        <v>36095</v>
       </c>
       <c r="F59" t="b">
-        <v>1</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1844,20 +1772,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Lauren Rush</t>
+          <t>Jacob Lewis</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D60" t="n">
-        <v>241.93</v>
+        <v>883.48</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>32960</v>
+        <v>36605</v>
       </c>
       <c r="F60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -1869,23 +1797,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Michelle Irwin</t>
+          <t>Brandon Buchanan</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D61" t="n">
-        <v>435.97</v>
+        <v>568.15</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>39364</v>
+        <v>35721</v>
       </c>
       <c r="F61" t="b">
-        <v>1</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1894,23 +1819,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Lisa Fritz</t>
+          <t>Laura Cannon</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D62" t="n">
-        <v>524</v>
+        <v>826.59</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>32045</v>
+        <v>36331</v>
       </c>
       <c r="F62" t="b">
-        <v>1</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1919,20 +1841,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Robert Carr</t>
+          <t>Richard Hardy</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D63" t="n">
-        <v>202.76</v>
+        <v>760.22</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>31960</v>
+        <v>38030</v>
       </c>
       <c r="F63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -1944,17 +1866,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Randy Riley</t>
+          <t>David Dougherty</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D64" t="n">
-        <v>850.0700000000001</v>
+        <v>141.93</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>30733</v>
+        <v>33070</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
@@ -1969,20 +1891,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Mr. Devin Gould</t>
+          <t>Richard King</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D65" t="n">
-        <v>849.64</v>
+        <v>700.21</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>27812</v>
+        <v>41450</v>
       </c>
       <c r="F65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -1994,23 +1916,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Kent White</t>
+          <t>David Jackson DVM</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D66" t="n">
-        <v>192.84</v>
+        <v>955.6900000000001</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>37935</v>
+        <v>36273</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2019,23 +1938,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Michael Simmons</t>
+          <t>John Hicks</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D67" t="n">
-        <v>371.7</v>
+        <v>324.39</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>38213</v>
+        <v>33855</v>
       </c>
       <c r="F67" t="b">
-        <v>1</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2044,23 +1960,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Clinton Smith</t>
+          <t>Gregory Smith DDS</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>586.01</v>
+        <v>591.87</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>29410</v>
+        <v>36245</v>
       </c>
       <c r="F68" t="b">
-        <v>1</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2069,17 +1982,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Joseph Brown</t>
+          <t>Austin Williams</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D69" t="n">
-        <v>439.16</v>
+        <v>515.5700000000001</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>26526</v>
+        <v>30363</v>
       </c>
       <c r="F69" t="b">
         <v>1</v>
@@ -2094,23 +2007,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>William Adams</t>
+          <t>Gary Rodriguez</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D70" t="n">
-        <v>397.76</v>
+        <v>221.67</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>41246</v>
+        <v>35158</v>
       </c>
       <c r="F70" t="b">
-        <v>1</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2119,20 +2029,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Chad Lee</t>
+          <t>Mary Rodriguez</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D71" t="n">
-        <v>370.55</v>
+        <v>507.95</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>42238</v>
+        <v>29425</v>
       </c>
       <c r="F71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
@@ -2144,23 +2054,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Lauren Phillips</t>
+          <t>Taylor Zhang</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D72" t="n">
-        <v>721.16</v>
+        <v>668.15</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>32515</v>
+        <v>41644</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2169,17 +2076,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Sherry Holland</t>
+          <t>Michael Li</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D73" t="n">
-        <v>980.96</v>
+        <v>341.99</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>31536</v>
+        <v>34684</v>
       </c>
       <c r="F73" t="b">
         <v>1</v>
@@ -2194,23 +2101,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Robert Schneider</t>
+          <t>Scott Perez</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D74" t="n">
-        <v>688.8099999999999</v>
+        <v>442.01</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>43238</v>
+        <v>30370</v>
       </c>
       <c r="F74" t="b">
-        <v>1</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2219,23 +2123,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Joe Summers</t>
+          <t>Stacey Whitaker</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D75" t="n">
-        <v>317.59</v>
+        <v>270.01</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>30911</v>
+        <v>39269</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2244,17 +2145,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Kimberly Mann</t>
+          <t>Joseph Howard</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>550.78</v>
+        <v>975.03</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>28611</v>
+        <v>30929</v>
       </c>
       <c r="F76" t="b">
         <v>1</v>
@@ -2269,20 +2170,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sarah Moody</t>
+          <t>Jorge Stephenson</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D77" t="n">
-        <v>854.8200000000001</v>
+        <v>418.22</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>34533</v>
+        <v>43374</v>
       </c>
       <c r="F77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
@@ -2294,20 +2195,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Eric Mccarthy</t>
+          <t>Jimmy Williams</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D78" t="n">
-        <v>520.75</v>
+        <v>138.08</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>41523</v>
+        <v>40559</v>
       </c>
       <c r="F78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
@@ -2319,23 +2220,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Paul Quinn</t>
+          <t>Sandra Rodriguez</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D79" t="n">
-        <v>118.68</v>
+        <v>550.12</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>39849</v>
+        <v>28662</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2344,23 +2242,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>James Jensen</t>
+          <t>Charles Gutierrez</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D80" t="n">
-        <v>539.01</v>
+        <v>651.89</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>33442</v>
+        <v>40770</v>
       </c>
       <c r="F80" t="b">
-        <v>1</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2369,20 +2264,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Lisa Johnson</t>
+          <t>Ashley Bowers</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D81" t="n">
-        <v>363.04</v>
+        <v>753.91</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>37579</v>
+        <v>35686</v>
       </c>
       <c r="F81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
@@ -2394,23 +2289,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Chelsea Brown</t>
+          <t>Mrs. Tammy Woodward MD</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D82" t="n">
-        <v>481.73</v>
+        <v>178.68</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>36214</v>
+        <v>38261</v>
       </c>
       <c r="F82" t="b">
-        <v>1</v>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2419,17 +2311,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Amanda Garcia</t>
+          <t>Amanda Craig</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>391.35</v>
+        <v>974.16</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>35697</v>
+        <v>35706</v>
       </c>
       <c r="F83" t="b">
         <v>1</v>
@@ -2444,23 +2336,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Angela Mitchell</t>
+          <t>Brittany Young</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D84" t="n">
-        <v>960.71</v>
+        <v>621.45</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>31043</v>
+        <v>37304</v>
       </c>
       <c r="F84" t="b">
-        <v>1</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2469,23 +2358,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Kristopher Griffin</t>
+          <t>Christian Moore</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>23</v>
       </c>
       <c r="D85" t="n">
-        <v>678.79</v>
+        <v>190.77</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>34623</v>
+        <v>37713</v>
       </c>
       <c r="F85" t="b">
-        <v>1</v>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2494,20 +2380,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Desiree Cameron</t>
+          <t>Anita Nelson</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D86" t="n">
-        <v>501.23</v>
+        <v>198.6</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>36466</v>
+        <v>39129</v>
       </c>
       <c r="F86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -2519,20 +2405,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Nicole Wells</t>
+          <t>Mitchell Day</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D87" t="n">
-        <v>815.8200000000001</v>
+        <v>340.05</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>37905</v>
+        <v>42437</v>
       </c>
       <c r="F87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
@@ -2544,23 +2430,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Hannah Ross</t>
+          <t>Shannon King</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D88" t="n">
-        <v>947.39</v>
+        <v>439.53</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>30667</v>
+        <v>36928</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2569,20 +2452,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Robin Russell</t>
+          <t>Michael Brandt</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D89" t="n">
-        <v>747.13</v>
+        <v>369.03</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>30054</v>
+        <v>35387</v>
       </c>
       <c r="F89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -2594,20 +2477,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Henry Parker</t>
+          <t>Walter Ellis</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D90" t="n">
-        <v>697.64</v>
+        <v>470.27</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>41804</v>
+        <v>36990</v>
       </c>
       <c r="F90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
@@ -2619,20 +2502,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Carla Collier</t>
+          <t>Keith Ramos</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D91" t="n">
-        <v>346.86</v>
+        <v>142.7</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>42143</v>
+        <v>25856</v>
       </c>
       <c r="F91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
@@ -2644,20 +2527,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Heidi Mcbride</t>
+          <t>Christie Reid</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D92" t="n">
-        <v>794.03</v>
+        <v>516.17</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>33403</v>
+        <v>35706</v>
       </c>
       <c r="F92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
@@ -2669,23 +2552,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>John Spears</t>
+          <t>Aimee Mckee</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D93" t="n">
-        <v>282.89</v>
+        <v>663.04</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>34300</v>
+        <v>39186</v>
       </c>
       <c r="F93" t="b">
-        <v>1</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2694,23 +2574,20 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>James Bowen</t>
+          <t>Clayton Hoffman</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D94" t="n">
-        <v>963.85</v>
+        <v>500.88</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>32087</v>
+        <v>34764</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2719,23 +2596,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Michael Thompson</t>
+          <t>Kelsey Barton</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" t="n">
-        <v>783.78</v>
+        <v>830.21</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>29724</v>
+        <v>34628</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2744,23 +2618,20 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Victoria Ramirez</t>
+          <t>Alison Lam</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D96" t="n">
-        <v>207.49</v>
+        <v>907.61</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>38323</v>
+        <v>33869</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2769,20 +2640,20 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>David Sullivan</t>
+          <t>Tom Macdonald</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D97" t="n">
-        <v>535.3200000000001</v>
+        <v>675.72</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>43390</v>
+        <v>29269</v>
       </c>
       <c r="F97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
@@ -2794,20 +2665,20 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Caroline Allen</t>
+          <t>Elizabeth Bradley</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D98" t="n">
-        <v>680</v>
+        <v>194.08</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>43388</v>
+        <v>31111</v>
       </c>
       <c r="F98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
@@ -2819,17 +2690,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Chelsea Summers</t>
+          <t>Matthew Blackwell</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D99" t="n">
-        <v>492.23</v>
+        <v>922.71</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>36794</v>
+        <v>35243</v>
       </c>
       <c r="F99" t="b">
         <v>1</v>
@@ -2844,20 +2715,20 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Gary Davis</t>
+          <t>Megan Jones</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D100" t="n">
-        <v>175.49</v>
+        <v>298.84</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>32670</v>
+        <v>38604</v>
       </c>
       <c r="F100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
@@ -2869,20 +2740,20 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Rachel Joyce</t>
+          <t>Dustin Baker</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D101" t="n">
-        <v>557.1900000000001</v>
+        <v>929.8099999999999</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>37752</v>
+        <v>36508</v>
       </c>
       <c r="F101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
